--- a/database/files/prof/business-upload/product_classification_upload_template.xlsx
+++ b/database/files/prof/business-upload/product_classification_upload_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\business-upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\prof\business-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,6 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -125,15 +128,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,55 +445,55 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/database/files/prof/business-upload/product_classification_upload_template.xlsx
+++ b/database/files/prof/business-upload/product_classification_upload_template.xlsx
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -132,12 +132,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,36 +445,36 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -483,7 +483,7 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/database/files/prof/business-upload/product_classification_upload_template.xlsx
+++ b/database/files/prof/business-upload/product_classification_upload_template.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="HWSW Split%" sheetId="1" r:id="rId1"/>
+    <sheet name="HWSW Split% Upload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
@@ -448,35 +448,35 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -487,12 +487,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
